--- a/common/src/main/resources/excel/PlayerExpResource.xlsx
+++ b/common/src/main/resources/excel/PlayerExpResource.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24131"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ztank-server\ztank-last\common-last\src\main\resources\excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\tank-game-server\common\src\main\resources\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4063E672-DA0F-4D47-BE4B-2FBFF2381106}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8976EF9-C2B8-47C2-A504-64D30C261317}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-93" yWindow="-93" windowWidth="25786" windowHeight="13986" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="lord_lvl" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="10">
   <si>
     <t>int</t>
   </si>
@@ -52,6 +52,10 @@
   </si>
   <si>
     <t>gem</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>diamond</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -420,22 +424,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D73"/>
+  <dimension ref="A1:E73"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+      <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.3" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.35" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="14.19921875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="20.09765625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="14.5" style="1" customWidth="1"/>
-    <col min="4" max="4" width="16.75" style="1" customWidth="1"/>
-    <col min="5" max="16384" width="9" style="1"/>
+    <col min="1" max="1" width="14.17578125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="20.1171875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="14.46875" style="1" customWidth="1"/>
+    <col min="4" max="5" width="16.76171875" style="1" customWidth="1"/>
+    <col min="6" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A1" s="2" t="s">
         <v>4</v>
       </c>
@@ -448,8 +452,11 @@
       <c r="D1" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="E1" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -462,8 +469,11 @@
       <c r="D2" s="2" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="E2" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
@@ -476,8 +486,11 @@
       <c r="D3" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="E3" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A4" s="3">
         <v>1</v>
       </c>
@@ -490,8 +503,11 @@
       <c r="D4" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="E4" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A5" s="3">
         <v>2</v>
       </c>
@@ -504,8 +520,11 @@
       <c r="D5" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="E5" s="3">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A6" s="3">
         <v>3</v>
       </c>
@@ -518,8 +537,11 @@
       <c r="D6" s="3">
         <v>541</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="E6" s="3">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A7" s="3">
         <v>4</v>
       </c>
@@ -532,8 +554,11 @@
       <c r="D7" s="3">
         <v>541</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="E7" s="3">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A8" s="3">
         <v>5</v>
       </c>
@@ -546,8 +571,11 @@
       <c r="D8" s="3">
         <v>643</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="E8" s="3">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A9" s="3">
         <v>6</v>
       </c>
@@ -560,8 +588,11 @@
       <c r="D9" s="3">
         <v>1286</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="E9" s="3">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A10" s="3">
         <v>7</v>
       </c>
@@ -574,8 +605,11 @@
       <c r="D10" s="3">
         <v>1470</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="E10" s="3">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A11" s="3">
         <v>8</v>
       </c>
@@ -588,8 +622,11 @@
       <c r="D11" s="3">
         <v>1470</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="E11" s="3">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A12" s="3">
         <v>9</v>
       </c>
@@ -602,8 +639,11 @@
       <c r="D12" s="3">
         <v>1640</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="E12" s="3">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A13" s="3">
         <v>10</v>
       </c>
@@ -616,8 +656,11 @@
       <c r="D13" s="3">
         <v>2460</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="E13" s="3">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A14" s="3">
         <v>11</v>
       </c>
@@ -630,8 +673,11 @@
       <c r="D14" s="3">
         <v>2697</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="E14" s="3">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A15" s="3">
         <v>12</v>
       </c>
@@ -644,8 +690,11 @@
       <c r="D15" s="3">
         <v>2697</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="E15" s="3">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A16" s="3">
         <v>13</v>
       </c>
@@ -658,8 +707,11 @@
       <c r="D16" s="3">
         <v>2925</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="E16" s="3">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A17" s="3">
         <v>14</v>
       </c>
@@ -672,8 +724,11 @@
       <c r="D17" s="3">
         <v>2925</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="E17" s="3">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A18" s="3">
         <v>15</v>
       </c>
@@ -686,8 +741,11 @@
       <c r="D18" s="3">
         <v>4184</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="E18" s="3">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A19" s="3">
         <v>16</v>
       </c>
@@ -700,8 +758,11 @@
       <c r="D19" s="3">
         <v>4184</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="E19" s="3">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A20" s="3">
         <v>17</v>
       </c>
@@ -714,8 +775,11 @@
       <c r="D20" s="3">
         <v>4456</v>
       </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="E20" s="3">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A21" s="3">
         <v>18</v>
       </c>
@@ -728,8 +792,11 @@
       <c r="D21" s="3">
         <v>4456</v>
       </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="E21" s="3">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A22" s="3">
         <v>19</v>
       </c>
@@ -742,8 +809,11 @@
       <c r="D22" s="3">
         <v>4720</v>
       </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="E22" s="3">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A23" s="3">
         <v>20</v>
       </c>
@@ -756,8 +826,11 @@
       <c r="D23" s="3">
         <v>4720</v>
       </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="E23" s="3">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A24" s="3">
         <v>21</v>
       </c>
@@ -770,8 +843,11 @@
       <c r="D24" s="3">
         <v>4972</v>
       </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="E24" s="3">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A25" s="3">
         <v>22</v>
       </c>
@@ -784,8 +860,11 @@
       <c r="D25" s="3">
         <v>4972</v>
       </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="E25" s="3">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A26" s="3">
         <v>23</v>
       </c>
@@ -798,8 +877,11 @@
       <c r="D26" s="3">
         <v>5216</v>
       </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="E26" s="3">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A27" s="3">
         <v>24</v>
       </c>
@@ -812,8 +894,11 @@
       <c r="D27" s="3">
         <v>5216</v>
       </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="E27" s="3">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A28" s="3">
         <v>25</v>
       </c>
@@ -826,8 +911,11 @@
       <c r="D28" s="3">
         <v>6820</v>
       </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="E28" s="3">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A29" s="3">
         <v>26</v>
       </c>
@@ -840,8 +928,11 @@
       <c r="D29" s="3">
         <v>6820</v>
       </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="E29" s="3">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A30" s="3">
         <v>27</v>
       </c>
@@ -854,8 +945,11 @@
       <c r="D30" s="3">
         <v>7105</v>
       </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="E30" s="3">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A31" s="3">
         <v>28</v>
       </c>
@@ -868,8 +962,11 @@
       <c r="D31" s="3">
         <v>7105</v>
       </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="E31" s="3">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A32" s="3">
         <v>29</v>
       </c>
@@ -882,8 +979,11 @@
       <c r="D32" s="3">
         <v>7385</v>
       </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="E32" s="3">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A33" s="3">
         <v>30</v>
       </c>
@@ -896,8 +996,11 @@
       <c r="D33" s="3">
         <v>7385</v>
       </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="E33" s="3">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A34" s="3">
         <v>31</v>
       </c>
@@ -910,8 +1013,11 @@
       <c r="D34" s="3">
         <v>7660</v>
       </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="E34" s="3">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A35" s="3">
         <v>32</v>
       </c>
@@ -924,8 +1030,11 @@
       <c r="D35" s="3">
         <v>7660</v>
       </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="E35" s="3">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A36" s="3">
         <v>33</v>
       </c>
@@ -938,8 +1047,11 @@
       <c r="D36" s="3">
         <v>7930</v>
       </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="E36" s="3">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A37" s="3">
         <v>34</v>
       </c>
@@ -952,8 +1064,11 @@
       <c r="D37" s="3">
         <v>7930</v>
       </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="E37" s="3">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A38" s="3">
         <v>35</v>
       </c>
@@ -966,8 +1081,11 @@
       <c r="D38" s="3">
         <v>9828</v>
       </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="E38" s="3">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A39" s="3">
         <v>36</v>
       </c>
@@ -980,8 +1098,11 @@
       <c r="D39" s="3">
         <v>9828</v>
       </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="E39" s="3">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A40" s="3">
         <v>37</v>
       </c>
@@ -994,8 +1115,11 @@
       <c r="D40" s="3">
         <v>10134</v>
       </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="E40" s="3">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A41" s="3">
         <v>38</v>
       </c>
@@ -1008,8 +1132,11 @@
       <c r="D41" s="3">
         <v>10134</v>
       </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="E41" s="3">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A42" s="3">
         <v>39</v>
       </c>
@@ -1022,8 +1149,11 @@
       <c r="D42" s="3">
         <v>10434</v>
       </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="E42" s="3">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A43" s="3">
         <v>40</v>
       </c>
@@ -1036,8 +1166,11 @@
       <c r="D43" s="3">
         <v>10434</v>
       </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="E43" s="3">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A44" s="3">
         <v>41</v>
       </c>
@@ -1050,8 +1183,11 @@
       <c r="D44" s="3">
         <v>10734</v>
       </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="E44" s="3">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A45" s="3">
         <v>42</v>
       </c>
@@ -1064,8 +1200,11 @@
       <c r="D45" s="3">
         <v>10734</v>
       </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="E45" s="3">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A46" s="3">
         <v>43</v>
       </c>
@@ -1078,8 +1217,11 @@
       <c r="D46" s="3">
         <v>10734</v>
       </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="E46" s="3">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A47" s="3">
         <v>44</v>
       </c>
@@ -1092,8 +1234,11 @@
       <c r="D47" s="3">
         <v>11022</v>
       </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="E47" s="3">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A48" s="3">
         <v>45</v>
       </c>
@@ -1106,8 +1251,11 @@
       <c r="D48" s="3">
         <v>12859</v>
       </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="E48" s="3">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A49" s="3">
         <v>46</v>
       </c>
@@ -1120,8 +1268,11 @@
       <c r="D49" s="3">
         <v>12859</v>
       </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="E49" s="3">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A50" s="3">
         <v>47</v>
       </c>
@@ -1134,8 +1285,11 @@
       <c r="D50" s="3">
         <v>13188</v>
       </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="E50" s="3">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A51" s="3">
         <v>48</v>
       </c>
@@ -1148,8 +1302,11 @@
       <c r="D51" s="3">
         <v>13188</v>
       </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="E51" s="3">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A52" s="3">
         <v>49</v>
       </c>
@@ -1162,8 +1319,11 @@
       <c r="D52" s="3">
         <v>13188</v>
       </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="E52" s="3">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A53" s="3">
         <v>50</v>
       </c>
@@ -1176,8 +1336,11 @@
       <c r="D53" s="3">
         <v>13517</v>
       </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="E53" s="3">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A54" s="3">
         <v>51</v>
       </c>
@@ -1190,8 +1353,11 @@
       <c r="D54" s="3">
         <v>13517</v>
       </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="E54" s="3">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A55" s="3">
         <v>52</v>
       </c>
@@ -1204,8 +1370,11 @@
       <c r="D55" s="3">
         <v>13517</v>
       </c>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="E55" s="3">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A56" s="3">
         <v>53</v>
       </c>
@@ -1218,8 +1387,11 @@
       <c r="D56" s="3">
         <v>13839</v>
       </c>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="E56" s="3">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A57" s="3">
         <v>54</v>
       </c>
@@ -1232,8 +1404,11 @@
       <c r="D57" s="3">
         <v>13839</v>
       </c>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="E57" s="3">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A58" s="3">
         <v>55</v>
       </c>
@@ -1246,8 +1421,11 @@
       <c r="D58" s="3">
         <v>15816</v>
       </c>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="E58" s="3">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A59" s="3">
         <v>56</v>
       </c>
@@ -1260,8 +1438,11 @@
       <c r="D59" s="3">
         <v>16176</v>
       </c>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="E59" s="3">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A60" s="3">
         <v>57</v>
       </c>
@@ -1274,8 +1455,11 @@
       <c r="D60" s="3">
         <v>16176</v>
       </c>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="E60" s="3">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A61" s="3">
         <v>58</v>
       </c>
@@ -1288,8 +1472,11 @@
       <c r="D61" s="3">
         <v>16176</v>
       </c>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="E61" s="3">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A62" s="3">
         <v>59</v>
       </c>
@@ -1302,8 +1489,11 @@
       <c r="D62" s="3">
         <v>16536</v>
       </c>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="E62" s="3">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A63" s="3">
         <v>60</v>
       </c>
@@ -1316,8 +1506,11 @@
       <c r="D63" s="3">
         <v>16536</v>
       </c>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="E63" s="3">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A64" s="3">
         <v>61</v>
       </c>
@@ -1330,8 +1523,11 @@
       <c r="D64" s="3">
         <v>16536</v>
       </c>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="E64" s="3">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A65" s="3">
         <v>62</v>
       </c>
@@ -1344,8 +1540,11 @@
       <c r="D65" s="3">
         <v>16888</v>
       </c>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="E65" s="3">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A66" s="3">
         <v>63</v>
       </c>
@@ -1358,8 +1557,11 @@
       <c r="D66" s="3">
         <v>16888</v>
       </c>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="E66" s="3">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A67" s="3">
         <v>64</v>
       </c>
@@ -1372,8 +1574,11 @@
       <c r="D67" s="3">
         <v>16888</v>
       </c>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="E67" s="3">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A68" s="3">
         <v>65</v>
       </c>
@@ -1386,8 +1591,11 @@
       <c r="D68" s="3">
         <v>17232</v>
       </c>
-    </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="E68" s="3">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A69" s="3">
         <v>66</v>
       </c>
@@ -1400,8 +1608,11 @@
       <c r="D69" s="3">
         <v>17232</v>
       </c>
-    </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="E69" s="3">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A70" s="3">
         <v>67</v>
       </c>
@@ -1414,8 +1625,11 @@
       <c r="D70" s="3">
         <v>17232</v>
       </c>
-    </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="E70" s="3">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A71" s="3">
         <v>68</v>
       </c>
@@ -1428,8 +1642,11 @@
       <c r="D71" s="3">
         <v>17232</v>
       </c>
-    </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="E71" s="3">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A72" s="3">
         <v>69</v>
       </c>
@@ -1442,8 +1659,11 @@
       <c r="D72" s="3">
         <v>17232</v>
       </c>
-    </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="E72" s="3">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A73" s="3">
         <v>70</v>
       </c>
@@ -1455,6 +1675,9 @@
       </c>
       <c r="D73" s="3">
         <v>17232</v>
+      </c>
+      <c r="E73" s="3">
+        <v>169</v>
       </c>
     </row>
   </sheetData>
